--- a/4.项目提交文档/4.9 总结报告/E-项目统计.xlsx
+++ b/4.项目提交文档/4.9 总结报告/E-项目统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu\Desktop\研一下\软工实验\我的\第17周\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\17TeamE_Lire\4.项目提交文档\4.9 总结报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>实验组序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流程图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,17 +251,13 @@
   </si>
   <si>
     <t>用例图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块结构图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -344,26 +336,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,17 +352,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,8 +361,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -674,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AV15"/>
+  <dimension ref="B5:AV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7:AH11"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK7" sqref="AK7:AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -692,68 +668,68 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8" t="s">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="7" t="s">
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="8" t="s">
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="7" t="s">
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7" t="s">
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
     </row>
     <row r="6" spans="2:48" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -841,7 +817,7 @@
         <v>42</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>5</v>
@@ -899,49 +875,49 @@
       </c>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7055</v>
+      </c>
+      <c r="D7" s="6">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="4">
-        <v>7055</v>
-      </c>
-      <c r="D7" s="4">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F7" s="3">
         <v>18</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>53</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>21</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>70</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <v>23</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>27</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="6">
         <v>43</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="6">
         <v>4394</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
         <v>15</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="6">
         <v>2849</v>
       </c>
       <c r="Q7" s="3" t="s">
@@ -950,340 +926,218 @@
       <c r="R7" s="3">
         <v>38</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="6">
         <v>1610</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="6">
         <v>3</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="6">
         <v>3</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="6">
         <v>5</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="6">
         <v>78.5</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="6">
         <v>8254</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="6">
         <v>25</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="6">
         <v>25</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="9">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="7">
         <v>1</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="6">
         <v>4</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="6">
         <v>38.5</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="6">
         <v>15</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="6">
         <v>30</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="6">
         <v>15</v>
       </c>
-      <c r="AH7" s="4">
-        <v>12</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>17</v>
-      </c>
-      <c r="AJ7" s="4">
+      <c r="AH7" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="6">
         <v>3989</v>
       </c>
-      <c r="AK7" s="4">
-        <v>9</v>
-      </c>
-      <c r="AL7" s="4">
+      <c r="AK7" s="6">
+        <v>18</v>
+      </c>
+      <c r="AL7" s="6">
         <v>13905</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AM7" s="6">
         <v>235</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="6">
         <v>39.5</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AO7" s="6">
         <v>15</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AP7" s="6">
         <v>637.4</v>
       </c>
-      <c r="AQ7" s="4">
+      <c r="AQ7" s="6">
         <v>192</v>
       </c>
-      <c r="AR7" s="4">
+      <c r="AR7" s="6">
         <v>5933</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AS7" s="6">
         <v>20.399999999999999</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AT7" s="6">
         <v>23</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AU7" s="6">
         <v>18872</v>
       </c>
-      <c r="AV7" s="4">
+      <c r="AV7" s="6">
         <v>35.5</v>
       </c>
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3">
         <v>20</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="R8" s="3">
         <v>38</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
       <c r="AA8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB8" s="9">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="7">
         <v>1</v>
       </c>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-    </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="3">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" s="3">
-        <v>13</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="AU7:AU8"/>
+    <mergeCell ref="AV7:AV8"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="AR7:AR8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AT7:AT8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="AT5:AV5"/>
     <mergeCell ref="AQ5:AS5"/>
     <mergeCell ref="C5:H5"/>
@@ -1292,43 +1146,10 @@
     <mergeCell ref="X5:AD5"/>
     <mergeCell ref="AE5:AK5"/>
     <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="N7:N11"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="P7:P11"/>
-    <mergeCell ref="S7:S11"/>
-    <mergeCell ref="T7:T11"/>
-    <mergeCell ref="U7:U11"/>
-    <mergeCell ref="V7:V11"/>
-    <mergeCell ref="W7:W11"/>
-    <mergeCell ref="X7:X11"/>
-    <mergeCell ref="Y7:Y11"/>
-    <mergeCell ref="Z7:Z11"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AD7:AD11"/>
-    <mergeCell ref="AE7:AE11"/>
-    <mergeCell ref="AF7:AF11"/>
-    <mergeCell ref="AG7:AG11"/>
-    <mergeCell ref="AH7:AH11"/>
-    <mergeCell ref="AI7:AI11"/>
-    <mergeCell ref="AJ7:AJ11"/>
-    <mergeCell ref="AK7:AK11"/>
-    <mergeCell ref="AL7:AL11"/>
-    <mergeCell ref="AM7:AM11"/>
-    <mergeCell ref="AN7:AN11"/>
-    <mergeCell ref="AO7:AO11"/>
-    <mergeCell ref="AU7:AU11"/>
-    <mergeCell ref="AV7:AV11"/>
-    <mergeCell ref="AP7:AP11"/>
-    <mergeCell ref="AQ7:AQ11"/>
-    <mergeCell ref="AR7:AR11"/>
-    <mergeCell ref="AS7:AS11"/>
-    <mergeCell ref="AT7:AT11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
